--- a/medicine/Psychotrope/Musée_des_boissons/Musée_des_boissons.xlsx
+++ b/medicine/Psychotrope/Musée_des_boissons/Musée_des_boissons.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_des_boissons</t>
+          <t>Musée_des_boissons</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Musée des boissons est localisé à Sainte-Gemmes-sur-Loire, près d'Angers, dans le département de Maine-et-Loire.
 C'est un musée qui présente  l'histoire des boissons, l'évolution de la consommation des divers breuvages, des métiers (comme vigneron, distillateur, brasseur, sommelier, ....). Depuis 2004, le sommelier Marc Massot, a ouvert ce musée consacré au service des boissons à travers les âges, au travail des échansons aux sommeliers et des objets utilisés et aux divers professions.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_des_boissons</t>
+          <t>Musée_des_boissons</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,13 +524,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le sommelier, Marc Massot[1], commence une collection en 2004, sur les outils de sommelier, avec une exposition, pour les enfants. Devant l’intérêt des visiteurs, d'autres expositions itinérantes ont lieu. Et la collection augmente, et évolue sur les boissons. En 2006, une association à but non lucratif loi 1901 est créée. Plusieurs personnes se regroupent afin de proposer des recherches et des animations.[réf. nécessaire]
-Depuis avril 2011, le Musée de la Sommellerie s'est installé près d'Angers. Le Musée abrite un centre de documentations avec une bibliothèque, et des archives[2].
-En 2012, le musée est une référence sur les boissons angevines disparues comme les jus de fruits et sodas KOPA[3], la source l'épervière et sa limonaderie...
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sommelier, Marc Massot, commence une collection en 2004, sur les outils de sommelier, avec une exposition, pour les enfants. Devant l’intérêt des visiteurs, d'autres expositions itinérantes ont lieu. Et la collection augmente, et évolue sur les boissons. En 2006, une association à but non lucratif loi 1901 est créée. Plusieurs personnes se regroupent afin de proposer des recherches et des animations.[réf. nécessaire]
+Depuis avril 2011, le Musée de la Sommellerie s'est installé près d'Angers. Le Musée abrite un centre de documentations avec une bibliothèque, et des archives.
+En 2012, le musée est une référence sur les boissons angevines disparues comme les jus de fruits et sodas KOPA, la source l'épervière et sa limonaderie...
 En 2013 est mise en place l'association « les amis du musée de la sommellerie ».
-En 2014, le musée de la Sommellerie change de nom et de site internet. Il devient le musée des boissons et de la sommellerie[4].
+En 2014, le musée de la Sommellerie change de nom et de site internet. Il devient le musée des boissons et de la sommellerie.
 En janvier 2020, le musée raccourcit son nom et devient le « Musée des Boissons ».
 En avril 2020, le travail de l'association « le Musée des boissons » est reconnu par l'AFMA. L'AFMA est la Fédération des musées d'agriculture et du patrimoine rural, créée en 1982.
 La même année, l'association est reconnue d'intérêt générale.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_des_boissons</t>
+          <t>Musée_des_boissons</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Collection sur les boissons</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le musée présente les diverses boissons comme l'eau, les jus de fruits, les sodas et limonade, la bière, le vin, les divers spiritueux, le café, le thé et les autres infusions, le chocolat (boissons), et même le lait.
 L'eau, première boisson de l'homme : Le musée retrace l'histoire de l'eau, l'eau des sources et l'eau potable (du robinet).
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_des_boissons</t>
+          <t>Musée_des_boissons</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Collections sur les outils de sommellerie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">On y découvre aussi les accessoires de service (verre, outils pour ouvrir les bouteilles, carafe, rafraîchissoirs…)
 Le musée montre l'évolution des « vases à boire » (objet utilisé pour boire), cela va des objets provenant de la nature (corne, enveloppe de la noix de coco) au timbale, calice, taste-vin, jusqu'aux verres.
@@ -600,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_des_boissons</t>
+          <t>Musée_des_boissons</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -618,10 +636,12 @@
           <t>Histoire des marques de boisson</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Diverses marques de boisson ont leurs historiques dans ce musée, avec des documents, des images et des objets.
-Les eaux : Source l'épervière[5] (jusqu'en 1989), à Saint-Sylvain-d'Anjou, Badoit, Vittel, Perrier, Evian, Plancoet, Volvic, Vichy Saint-Yorre, ST Martin, hateldon, Quezac, Salvetat...
+Les eaux : Source l'épervière (jusqu'en 1989), à Saint-Sylvain-d'Anjou, Badoit, Vittel, Perrier, Evian, Plancoet, Volvic, Vichy Saint-Yorre, ST Martin, hateldon, Quezac, Salvetat...
 Les liqueurs: Cointreau, Giffard, Combier, Cusenier, Izarra, Grand Marnier, Courvoisier...
 Les bières : Brasseries de la Meuse, Brasserie de Champigneulles, Brasserie Gangloff...
 Les anisés : Pernod, Ricard, Marie Brizard, Berger...
@@ -637,7 +657,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_des_boissons</t>
+          <t>Musée_des_boissons</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -655,7 +675,9 @@
           <t>Centre de documentations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Musée des boissons possède une bibliothèque et un centre d'archives.
 </t>
